--- a/inst/extdata/examples/xlsx/dot-shape.xlsx
+++ b/inst/extdata/examples/xlsx/dot-shape.xlsx
@@ -755,7 +755,7 @@
         <v>2.05044070000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2.73477774000001</v>
+        <v>2.73477774</v>
       </c>
       <c r="D8" t="n">
         <v>0.090982459999992</v>

--- a/inst/extdata/examples/xlsx/dot-shape.xlsx
+++ b/inst/extdata/examples/xlsx/dot-shape.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -39,6 +39,12 @@
     <t xml:space="preserve">Verlies van banken na afschrijving 20% van de\noverheidsschuld van GIIPS-landen</t>
   </si>
   <si>
+    <t xml:space="preserve">x_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land</t>
+  </si>
+  <si>
     <t xml:space="preserve">y_title</t>
   </si>
   <si>
@@ -91,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve">0, 10, 20, 30, 40, 50, 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_title_align</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -570,7 +582,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,30 +616,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="n">
         <v>48.04125364</v>
@@ -634,7 +662,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
         <v>6.30080802</v>
@@ -657,7 +685,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
         <v>4.16227760000001</v>
@@ -680,7 +708,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.57141794</v>
@@ -703,7 +731,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" t="n">
         <v>1.99600464000001</v>
@@ -726,7 +754,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n">
         <v>1.34525086</v>
@@ -749,7 +777,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" t="n">
         <v>2.05044070000001</v>
@@ -772,7 +800,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
         <v>0.12188338</v>
@@ -795,7 +823,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>0.371825240000001</v>
@@ -818,7 +846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" t="n">
         <v>0.976480519999995</v>
